--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704322.5779357565</v>
+        <v>742888.1751864642</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982523</v>
+        <v>335414.3901624714</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.420682378</v>
+        <v>8194462.196483679</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>9.172723217728397</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516669</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>118.4633129127681</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.632598604764548</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>215.4108546636942</v>
       </c>
       <c r="H5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>79.35943613044333</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>49.35881322918693</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>86.23693751337946</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>20.85732126240501</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H8" t="n">
-        <v>283.8737319044598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>134.7112125417465</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.591242632523</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>14.41402108404401</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.3138620892177</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>105.3148082618167</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1464,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>33.20988753395304</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1664,7 +1666,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>121.4691059445367</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.57678144609387</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044664</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,16 +1846,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>158.9897392454093</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>26.94389492651113</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1935,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.2511029009964</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>81.1220065286378</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>68.22769775781612</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>61.27848144397856</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>202.6992494904092</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>36.86740133315054</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>81.1220065286378</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>29.22883044751075</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>203.1269667959764</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>120.3545121035715</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.16584928708771</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>5.791117132839158</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>162.1994487854631</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>150.5540262346242</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>36.54503410409039</v>
       </c>
       <c r="G35" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>308.1699826279565</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>218.6914167599788</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>279.9387901805692</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>132.6431324428434</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>155.2114886365811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>278.6372557225945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>53.8746780770588</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>101.7806877295493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.9604071117565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>286.9604071117565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>286.9604071117565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>286.9604071117565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>286.9604071117565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>286.9604071117565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>1043.702758819063</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>1043.702758819063</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>818.7624959030029</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>818.7624959030029</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>818.7624959030029</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>552.8614515073797</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>286.9604071117565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.9604071117565</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.2968177215889</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C3" t="n">
-        <v>180.2968177215889</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D3" t="n">
-        <v>180.2968177215889</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613335</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683217</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>24.95018035683217</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>264.2940185443786</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565288</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480438</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>782.4144152406848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>662.7545032075857</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>434.5341744497905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>434.5341744497905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>180.2968177215889</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>180.2968177215889</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>180.2968177215889</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>176.8194339304876</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>176.8194339304876</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.0384945329111</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="C5" t="n">
-        <v>301.0384945329111</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="D5" t="n">
-        <v>301.0384945329111</v>
+        <v>237.1517404714108</v>
       </c>
       <c r="E5" t="n">
-        <v>301.0384945329111</v>
+        <v>237.1517404714108</v>
       </c>
       <c r="F5" t="n">
-        <v>301.0384945329111</v>
+        <v>237.1517404714108</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0384945329111</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823541</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>858.9304414063565</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V5" t="n">
-        <v>858.9304414063565</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W5" t="n">
-        <v>579.9844679696338</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X5" t="n">
-        <v>579.9844679696338</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.9844679696338</v>
+        <v>731.2178664535166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261.4910226980513</v>
+        <v>592.5674945560968</v>
       </c>
       <c r="C6" t="n">
-        <v>181.3299761016439</v>
+        <v>418.1144652749698</v>
       </c>
       <c r="D6" t="n">
-        <v>181.3299761016439</v>
+        <v>418.1144652749698</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618843</v>
+        <v>418.1144652749698</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618843</v>
+        <v>271.5799073018547</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618843</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>22.09252109618843</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>268.2479876888894</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>541.6429362542212</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="N6" t="n">
-        <v>641.2451212288495</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121333</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S6" t="n">
-        <v>932.6220420606003</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="T6" t="n">
-        <v>932.6220420606003</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="U6" t="n">
-        <v>704.403429694748</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="V6" t="n">
-        <v>469.2513214630052</v>
+        <v>642.4248816562856</v>
       </c>
       <c r="W6" t="n">
-        <v>469.2513214630052</v>
+        <v>642.4248816562856</v>
       </c>
       <c r="X6" t="n">
-        <v>469.2513214630052</v>
+        <v>642.4248816562856</v>
       </c>
       <c r="Y6" t="n">
-        <v>261.4910226980513</v>
+        <v>592.5674945560968</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>111.8846993128535</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492713</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160686</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754622</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1031.900134531511</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>765.9990901358877</v>
       </c>
       <c r="D8" t="n">
-        <v>494.150101163113</v>
+        <v>765.9990901358877</v>
       </c>
       <c r="E8" t="n">
-        <v>494.150101163113</v>
+        <v>500.0980457402646</v>
       </c>
       <c r="F8" t="n">
-        <v>494.150101163113</v>
+        <v>500.0980457402646</v>
       </c>
       <c r="G8" t="n">
-        <v>494.150101163113</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1052.968135806668</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>637.3563368361808</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>462.9033075550539</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>462.9033075550539</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>303.6658525495984</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>157.1312945764833</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>264.2940185443786</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>845.1166356011347</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>637.3563368361808</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.109828622464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C11" t="n">
-        <v>546.109828622464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D11" t="n">
-        <v>546.109828622464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E11" t="n">
-        <v>160.3215760242197</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>160.3215760242197</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5069,10 +5071,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
         <v>1662.48357412947</v>
@@ -5081,10 +5083,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M12" t="n">
         <v>1237.953133915166</v>
@@ -5139,22 +5141,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5163,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.9054987607761</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
         <v>2544.691559791252</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1925.879084331904</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1573.11042906179</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.64467080071</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>809.505338824898</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5358,13 +5360,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5379,25 +5381,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.5386780278486</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C17" t="n">
-        <v>214.5386780278486</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.1385180919704</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,31 +5591,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5637,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1995.909162857192</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312744</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.324418312744</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X20" t="n">
-        <v>2112.324418312744</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y20" t="n">
-        <v>2112.324418312744</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5932,28 +5934,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>138.3857151273829</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1210.087414675782</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="C23" t="n">
-        <v>1210.087414675782</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D23" t="n">
-        <v>1210.087414675782</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2580.222945544697</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2326.461160182788</v>
+        <v>2273.767707333307</v>
       </c>
       <c r="V23" t="n">
-        <v>2326.461160182788</v>
+        <v>1942.704819989736</v>
       </c>
       <c r="W23" t="n">
-        <v>1973.692504912674</v>
+        <v>1589.936164719622</v>
       </c>
       <c r="X23" t="n">
-        <v>1600.226746651594</v>
+        <v>1216.470406458542</v>
       </c>
       <c r="Y23" t="n">
-        <v>1210.087414675782</v>
+        <v>826.3310744827305</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>91.18278114677915</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>781.1711973675267</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>412.208680427115</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036446</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6224,13 +6226,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>1557.91036940746</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y26" t="n">
-        <v>1167.771037431648</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036446</v>
@@ -6406,28 +6408,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>1783.124109094749</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1414.161592154337</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>1055.895893547586</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>670.1076409493421</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1217361597346</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1217361597346</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036446</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2575.578876772191</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U29" t="n">
-        <v>2321.817091410283</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2321.817091410283</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W29" t="n">
-        <v>1969.048436140168</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X29" t="n">
-        <v>1595.582677879089</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.582677879089</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>546.4805193761947</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>517.0200655508536</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1995.909162857192</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2636.270788283222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2636.270788283222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2382.509002921313</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2382.509002921313</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>2382.509002921313</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6789,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="C34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="D34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="E34" t="n">
-        <v>2169.853036130064</v>
+        <v>2186.800915688176</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.800915688176</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686825</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="V34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="W34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="X34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="Y34" t="n">
-        <v>2317.766129712457</v>
+        <v>2334.714009270569</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978289</v>
+        <v>1744.232431292459</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.447402037877</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="D35" t="n">
-        <v>1193.181703431127</v>
+        <v>1375.269914352047</v>
       </c>
       <c r="E35" t="n">
-        <v>807.3934508328825</v>
+        <v>989.4816617538027</v>
       </c>
       <c r="F35" t="n">
-        <v>396.407546043275</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6962,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.009759042411</v>
+        <v>2130.83227135658</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.69838933464726</v>
+        <v>2294.708047044452</v>
       </c>
       <c r="C37" t="n">
-        <v>97.69838933464726</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="D37" t="n">
-        <v>97.69838933464726</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="E37" t="n">
-        <v>97.69838933464726</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="F37" t="n">
-        <v>97.69838933464726</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2125.771864116545</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>279.346854164887</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1078.595463490097</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C38" t="n">
-        <v>1078.595463490097</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D38" t="n">
-        <v>1078.595463490097</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>692.8072108918532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>692.8072108918532</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>274.84340279004</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1838.661061815299</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X38" t="n">
-        <v>1465.195303554219</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y38" t="n">
-        <v>1465.195303554219</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7272,28 +7274,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037877</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733123</v>
@@ -7436,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>2034.2199859988</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7509,22 +7511,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7600,13 +7602,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.146815977588</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C44" t="n">
-        <v>857.6950425204218</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D44" t="n">
-        <v>857.6950425204218</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>108.3618485648683</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>108.3618485648683</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>108.3618485648683</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7646,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="45">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C46" t="n">
         <v>53.94298182036445</v>
@@ -7810,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>625.3202087220412</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>404.5276295785111</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429919</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>371.3531930724114</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>399.2039605324505</v>
+        <v>244.9354681589041</v>
       </c>
       <c r="N6" t="n">
-        <v>212.3582274761389</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>375.2833119014001</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714817</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451753</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951772</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921148</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852072</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.8848795467417</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574613</v>
+        <v>296.8154002296654</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268022</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>81.50189409630673</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.05442386122461</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595406</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.1619485273195</v>
+        <v>199.8771135533776</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194541</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>93.34906285787241</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268741</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>156.3238825481174</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>67.3143516686515</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>39.91394168141608</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>361.8765204010756</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H8" t="n">
-        <v>40.04904085989739</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.582804137949182</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23185,25 +23187,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.4441827632697</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>47.41997957426287</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>308.4693617589783</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>112.2111604889782</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>371.3427523386205</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23510,10 +23512,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.2831525255982</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047531</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458451</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23732,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>195.6933023752737</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9321508152003</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724691</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>267.4827387624842</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24020,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>135.32631382902</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,28 +24174,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>202.9246923626428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>150.3569555942787</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>155.1698389136792</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>48.52491801788005</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>130.3794197654773</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24415,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24494,19 +24496,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>135.32631382902</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>138.0809718115402</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24646,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>202.9246923626428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>120.7958059683808</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>96.09380825408631</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>116.2551987358435</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24889,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.2516047562944</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>168.6245956761323</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>5.110353473587821</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25120,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>135.7278480073535</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>370.331011637621</v>
       </c>
       <c r="G35" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.9919488199109</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>54.39020111224633</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25394,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>46.51305899272649</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>105.2313560043783</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>74.74425144011371</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>253.5948062132101</v>
       </c>
     </row>
     <row r="42">
@@ -25840,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>96.92615468724688</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>86.63563604841306</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>270.0480946872983</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,7 +25924,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484207.182354206</v>
+        <v>465488.0628680185</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494243.3891182222</v>
+        <v>468513.85889795</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787228.4241821774</v>
+        <v>484207.1823542059</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>149544.6052781992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150588.1755146547</v>
+      </c>
+      <c r="D2" t="n">
         <v>156006.1355264979</v>
       </c>
-      <c r="C2" t="n">
-        <v>159463.6497950859</v>
-      </c>
-      <c r="D2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="E2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="F2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141818</v>
       </c>
       <c r="I2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="J2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="M2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="N2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>260237.3490141817</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749499</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438899</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124996</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475209</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>4727.563118847404</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33719.40849968308</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="C4" t="n">
-        <v>33777.16046143055</v>
+        <v>33663.59862924286</v>
       </c>
       <c r="D4" t="n">
-        <v>35944.74664026682</v>
+        <v>33719.40849968306</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="G4" t="n">
         <v>35944.74664026682</v>
@@ -26451,13 +26453,13 @@
         <v>35944.74664026681</v>
       </c>
       <c r="N4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="O4" t="n">
         <v>35944.74664026681</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="D5" t="n">
         <v>50134.40740683336</v>
       </c>
-      <c r="C5" t="n">
-        <v>51181.37951678014</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26497,7 +26499,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38242.13525496844</v>
+        <v>-13155.94180136791</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.42223248619</v>
+        <v>63855.64757802823</v>
       </c>
       <c r="D6" t="n">
-        <v>-275750.0978431827</v>
+        <v>49787.33266244581</v>
       </c>
       <c r="E6" t="n">
-        <v>175061.1243105053</v>
+        <v>-232659.3133730689</v>
       </c>
       <c r="F6" t="n">
         <v>175061.1243105054</v>
       </c>
       <c r="G6" t="n">
-        <v>175061.1243105053</v>
+        <v>175061.1243105055</v>
       </c>
       <c r="H6" t="n">
         <v>175061.1243105055</v>
       </c>
       <c r="I6" t="n">
+        <v>175061.1243105054</v>
+      </c>
+      <c r="J6" t="n">
+        <v>112001.1817113991</v>
+      </c>
+      <c r="K6" t="n">
+        <v>174147.8685080483</v>
+      </c>
+      <c r="L6" t="n">
+        <v>170333.561191658</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72627.00661987028</v>
+      </c>
+      <c r="N6" t="n">
+        <v>175061.1243105055</v>
+      </c>
+      <c r="O6" t="n">
+        <v>175061.1243105055</v>
+      </c>
+      <c r="P6" t="n">
         <v>175061.1243105053</v>
-      </c>
-      <c r="J6" t="n">
-        <v>106185.4255792554</v>
-      </c>
-      <c r="K6" t="n">
-        <v>171737.3504860302</v>
-      </c>
-      <c r="L6" t="n">
-        <v>74297.81237122498</v>
-      </c>
-      <c r="M6" t="n">
-        <v>175061.1243105054</v>
-      </c>
-      <c r="N6" t="n">
-        <v>175061.1243105053</v>
-      </c>
-      <c r="O6" t="n">
-        <v>175061.1243105053</v>
-      </c>
-      <c r="P6" t="n">
-        <v>175061.1243105054</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="D3" t="n">
         <v>23.01338268678962</v>
       </c>
-      <c r="C3" t="n">
-        <v>35.02126071912529</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="D4" t="n">
         <v>263.2420339516669</v>
       </c>
-      <c r="C4" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26817,10 +26819,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233568</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068854</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.242033951667</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068854</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.67930159052437</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068854</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.140788987815579</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.441855221466299</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760113</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461251</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884597</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.217558194707</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.7213143567723</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840331</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081215</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411504</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796961</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587037</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847509</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.727517133052018</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727676</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779982</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335883</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358772</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192328</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833406</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650261</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164365</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263565</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504675</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89918574522732</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174383</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170838</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894673</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948808</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.66414560139404</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179675</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938405</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.28821036858792</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.83959271339006</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025626</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,43 +31758,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.7614527146934</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503281</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>276.1565137023554</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="N6" t="n">
-        <v>100.6082676511396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891755</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821095</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721081</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062263</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421935</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>245.6915715436821</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3926104730631</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116789</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355121</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35817,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730622</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
         <v>297.223041434342</v>
@@ -37558,7 +37560,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435302</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678501.3552164224</v>
+        <v>735338.4935141345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236428.3313983642</v>
+        <v>334102.4764960237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279345</v>
+        <v>10869907.28803381</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8809834.007315582</v>
+        <v>8212577.726606163</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>66.46948864201235</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.5032166200848</v>
+        <v>188.7192203021039</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478778</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.3491227737429</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>239.6702657845102</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>82.0223869878877</v>
       </c>
     </row>
     <row r="7">
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017904</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D8" t="n">
-        <v>297.0377813917716</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>83.70888068730564</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553073</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>162.2882671819777</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.4435927426899</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>216.9392492676206</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>117.5864309727544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>16.82161760581692</v>
+        <v>298.6751061621942</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>65.51651982872629</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.9454048773934</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>111.6193066477301</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>179.9070498704725</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>333.3861176502161</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2137,7 +2137,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>290.1262884274132</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>50.36218625475002</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>259.3924174929238</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>127.5003019127645</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>48.97699675700464</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>46.87764770582166</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2851,16 +2851,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.2605707690903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>292.9415311655812</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>297.0344127064965</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.6652719985047</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>88.8349040225292</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>166.6606309303062</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.130758887765173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.938553216412243</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>64.99586874835502</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>197.420899786632</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>95.54854747681601</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>128.7835007017901</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.444300038939438</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>262.4008770978202</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>213.6113417665674</v>
       </c>
       <c r="U43" t="n">
-        <v>196.7218456862864</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.23669384344</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>315.9900034203533</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.567753130208</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>580.7720421891916</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.626054809422</v>
+        <v>333.7389791981386</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726991</v>
+        <v>86.70591620708569</v>
       </c>
       <c r="E2" t="n">
-        <v>546.7341079359765</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>546.7341079359765</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329111</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09252109618843</v>
+        <v>332.7408911953536</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618843</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618843</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>45.18387750277338</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>291.3393440954744</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N3" t="n">
-        <v>838.129241226138</v>
+        <v>862.0818176160244</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>876.4074424435694</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V3" t="n">
-        <v>641.2553342118267</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W3" t="n">
-        <v>387.0179774836251</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="X3" t="n">
-        <v>179.1664772780923</v>
+        <v>523.3663662479838</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.09252109618843</v>
+        <v>332.7408911953536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1707.318255429741</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="C5" t="n">
-        <v>1338.355738489329</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="D5" t="n">
-        <v>1338.355738489329</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="E5" t="n">
-        <v>952.5674858910851</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>291.098892013627</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564835</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564835</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564835</v>
+        <v>533.1900695737384</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>480.7277748993608</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>480.7277748993608</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005477</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635871</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1722.185086336931</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="C8" t="n">
-        <v>1722.185086336931</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>109.7522725546766</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.185086336931</v>
+        <v>641.5543613459222</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>280.4801568279211</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>280.4801568279211</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>280.4801568279211</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>280.4801568279211</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>716.5519857912491</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>488.3316570334539</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>488.3316570334539</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>488.3316570334539</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>280.4801568279211</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>280.4801568279211</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>365.927467442204</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>219.0375199442937</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245972</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1422.14692331494</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C11" t="n">
-        <v>1422.14692331494</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.14692331494</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>273.0735366361428</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>273.0735366361428</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014692</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>1422.14692331494</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y11" t="n">
-        <v>1422.14692331494</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5135,10 +5135,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5205,43 +5205,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>211.6471865296041</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>211.6471865296041</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>211.6471865296041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
         <v>53.94298182036445</v>
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1053.350203651864</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C14" t="n">
-        <v>1053.350203651864</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D14" t="n">
-        <v>1036.358670716696</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>2169.72394915887</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W14" t="n">
-        <v>1816.955293888756</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X14" t="n">
-        <v>1443.489535627676</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y14" t="n">
-        <v>1053.350203651864</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5378,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5442,34 +5442,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V16" t="n">
         <v>343.360151857325</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>625.3727659270879</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C17" t="n">
-        <v>625.3727659270879</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D17" t="n">
-        <v>625.3727659270879</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E17" t="n">
-        <v>625.3727659270879</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
         <v>207.4089578252748</v>
@@ -5515,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5557,10 +5557,10 @@
         <v>1485.892406545185</v>
       </c>
       <c r="X17" t="n">
-        <v>1112.426648284105</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y17" t="n">
-        <v>722.2873163082934</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5603,16 +5603,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5706,7 +5706,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1675.109392681467</v>
+        <v>2065.583954036491</v>
       </c>
       <c r="C20" t="n">
-        <v>1675.109392681467</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D20" t="n">
-        <v>1675.109392681467</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E20" t="n">
-        <v>1289.321140083223</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F20" t="n">
         <v>952.5674858910851</v>
@@ -5764,7 +5764,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W20" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X20" t="n">
-        <v>1675.109392681467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y20" t="n">
-        <v>1675.109392681467</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.875667274027</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.875667274027</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.875667274027</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2372.61483931396</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2372.61483931396</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2372.61483931396</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X23" t="n">
-        <v>2372.61483931396</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y23" t="n">
-        <v>1982.475507338148</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="24">
@@ -6080,13 +6080,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6174,13 +6174,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
         <v>343.360151857325</v>
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1112.426648284106</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C26" t="n">
-        <v>1112.426648284106</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D26" t="n">
-        <v>754.1609496773551</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E26" t="n">
-        <v>754.1609496773551</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6238,40 +6238,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W26" t="n">
-        <v>1485.892406545185</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X26" t="n">
-        <v>1112.426648284106</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y26" t="n">
-        <v>1112.426648284106</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
@@ -6314,16 +6314,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.65727031047</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>509.7210873825632</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>359.6044479702274</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>211.6913543878343</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>678.65727031047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>678.65727031047</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>678.65727031047</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>678.65727031047</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>678.65727031047</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>678.65727031047</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>952.5674858910851</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C29" t="n">
-        <v>952.5674858910851</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.797931719413</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2473.620444033583</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2254.985777005646</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2001.223991643737</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2001.223991643737</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>2001.223991643737</v>
       </c>
       <c r="X29" t="n">
-        <v>1112.426648284106</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="Y29" t="n">
-        <v>952.5674858910851</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6551,40 +6551,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1662.48357412947</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C32" t="n">
-        <v>1662.48357412947</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.217875522719</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>918.4296229244749</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>507.4437181348673</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1662.48357412947</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1662.48357412947</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.820796875036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>500.820796875036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>370.8558756644252</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V34" t="n">
-        <v>500.820796875036</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W34" t="n">
-        <v>500.820796875036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X34" t="n">
-        <v>500.820796875036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.820796875036</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2133.992864657682</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2133.992864657682</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.48357412947</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="X35" t="n">
-        <v>1662.48357412947</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.8207968750362</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C37" t="n">
-        <v>498.8626623130036</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>500.8207968750362</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X37" t="n">
-        <v>500.8207968750362</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y37" t="n">
-        <v>500.8207968750362</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1995.909162857192</v>
+        <v>1562.96844097022</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>1562.96844097022</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1562.96844097022</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U38" t="n">
-        <v>2326.972050200762</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V38" t="n">
-        <v>1995.909162857192</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W38" t="n">
-        <v>1995.909162857192</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="X38" t="n">
-        <v>1995.909162857192</v>
+        <v>1949.568281034342</v>
       </c>
       <c r="Y38" t="n">
-        <v>1995.909162857192</v>
+        <v>1949.568281034342</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7271,25 +7271,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>598.0446400632119</v>
+        <v>659.249899616903</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1338.355738489329</v>
+        <v>1362.14067848328</v>
       </c>
       <c r="C41" t="n">
-        <v>1338.355738489329</v>
+        <v>993.1781615428681</v>
       </c>
       <c r="D41" t="n">
-        <v>1338.355738489329</v>
+        <v>634.9124629361177</v>
       </c>
       <c r="E41" t="n">
-        <v>952.5674858910851</v>
+        <v>634.9124629361177</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W41" t="n">
-        <v>1728.495070465141</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X41" t="n">
-        <v>1728.495070465141</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y41" t="n">
-        <v>1338.355738489329</v>
+        <v>1362.14067848328</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,31 +7511,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="U43" t="n">
-        <v>529.4200491697815</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V43" t="n">
-        <v>274.7355609638946</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W43" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253591</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V44" t="n">
-        <v>2092.422847177207</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W44" t="n">
-        <v>1739.654191907093</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X44" t="n">
-        <v>1366.188433646013</v>
+        <v>1244.294882584544</v>
       </c>
       <c r="Y44" t="n">
-        <v>1366.188433646013</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245969</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X46" t="n">
-        <v>513.8405610245969</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y46" t="n">
-        <v>513.8405610245969</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>149.0021003118941</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>186.9543986931426</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516222</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.292646620523</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992659</v>
+        <v>134.292646620523</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N15" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451751</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>110.1203092595406</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>315.4608814302494</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>171.9232912582848</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.17947915721956</v>
+        <v>16.96347547520043</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>149.2371023278295</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>197.3847188897376</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>175.5399556193211</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>123.6603087894167</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>92.30257421685306</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D8" t="n">
-        <v>57.64526022891135</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>123.2002815020653</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>37.67693982709713</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23187,25 +23187,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.866209516360982</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>126.4816966381041</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>196.8449207531744</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>252.1446697057146</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.45749068994752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.861424014866</v>
+        <v>56.00793545848876</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,10 +23709,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>186.6211234951017</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>286.7884367860872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>243.0637349729529</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>202.8267917930081</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>73.4899280914953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>75.14660334359439</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>200.8619812535393</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24414,16 +24414,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>123.3414241705568</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>279.375743828947</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24651,19 +24651,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>163.1685421930143</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>7.600754868990037</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>227.9773678869633</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>50.7817782392907</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>69.58249272689005</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>89.79231049789939</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>116.7497573142984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>19.95020101970769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>136.2002014355551</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>84.56353657798309</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>379.1071797682884</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>165.3082678822156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>80.42517927457622</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25365,7 +25365,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>184.5094702856298</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>155.6756200314733</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.25160475629417</v>
+        <v>156.8448117144482</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>397.431745702772</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>86.84009161959284</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>11.42376369151688</v>
       </c>
       <c r="U43" t="n">
-        <v>89.5600285556913</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>185.4971478200406</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>53.7410972581157</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>3.866209516361153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>494243.3891182222</v>
+        <v>468513.8588979499</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>787228.4241821773</v>
+        <v>484207.1823542056</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787228.4241821774</v>
+        <v>484207.1823542058</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159463.6497950858</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="C2" t="n">
+        <v>156006.1355264979</v>
+      </c>
+      <c r="D2" t="n">
+        <v>156006.1355264978</v>
+      </c>
+      <c r="E2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="F2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="G2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="H2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="I2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="D2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="E2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="G2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="I2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141816</v>
@@ -26343,16 +26343,16 @@
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141816</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147458</v>
+        <v>23645.34018189509</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113912</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>4807.454491750033</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33777.16046143055</v>
+        <v>33663.59862924286</v>
       </c>
       <c r="C4" t="n">
-        <v>35944.74664026682</v>
+        <v>33719.40849968306</v>
       </c>
       <c r="D4" t="n">
-        <v>35944.74664026682</v>
+        <v>33719.40849968306</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26444,7 +26444,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
         <v>35944.74664026682</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51181.37951678014</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26493,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63455.18422126235</v>
+        <v>-18367.3095040066</v>
       </c>
       <c r="C6" t="n">
-        <v>-305342.9729500596</v>
+        <v>47321.07576635066</v>
       </c>
       <c r="D6" t="n">
-        <v>135365.1105646862</v>
+        <v>70966.41594824565</v>
       </c>
       <c r="E6" t="n">
-        <v>168992.7105646861</v>
+        <v>-233266.1547476511</v>
       </c>
       <c r="F6" t="n">
-        <v>168992.7105646862</v>
+        <v>174454.2829359234</v>
       </c>
       <c r="G6" t="n">
-        <v>168992.7105646862</v>
+        <v>174454.2829359234</v>
       </c>
       <c r="H6" t="n">
-        <v>168992.7105646862</v>
+        <v>174454.2829359234</v>
       </c>
       <c r="I6" t="n">
-        <v>168992.7105646861</v>
+        <v>174454.2829359235</v>
       </c>
       <c r="J6" t="n">
-        <v>96738.01569354701</v>
+        <v>110465.9113900247</v>
       </c>
       <c r="K6" t="n">
-        <v>66526.59336893949</v>
+        <v>169646.8284441734</v>
       </c>
       <c r="L6" t="n">
-        <v>168992.7105646861</v>
+        <v>174454.2829359235</v>
       </c>
       <c r="M6" t="n">
-        <v>168992.7105646861</v>
+        <v>72020.16524528827</v>
       </c>
       <c r="N6" t="n">
-        <v>168992.7105646861</v>
+        <v>174454.2829359235</v>
       </c>
       <c r="O6" t="n">
-        <v>168992.7105646861</v>
+        <v>174454.2829359235</v>
       </c>
       <c r="P6" t="n">
-        <v>168992.7105646861</v>
+        <v>174454.2829359234</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
+        <v>23.01338268678938</v>
+      </c>
+      <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26813,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979615</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>23.32460243089389</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>46.23830557294078</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328935</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35734,16 +35734,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35971,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36208,16 +36208,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36919,16 +36919,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,10 +37867,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355119</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
